--- a/biology/Biologie cellulaire et moléculaire/Cryofracture/Cryofracture.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Cryofracture/Cryofracture.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La cryofracture est une méthode utilisée pour la recherche en biologie. Elle permet l'observation d'une coupe cellulaire formée à partir d'un échantillon congelé.
 </t>
@@ -511,7 +523,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>On congèle l'échantillon à très basse température, par exemple à l'aide d'azote (N2) liquide (-196 °C),
 Puis on effectue une cryofracture, qui se fait de manière aléatoire, le plus souvent entre la membrane et le hyaloplasme, et parfois entre les deux feuillets de la bicouche phospholipidique de la membrane.
@@ -547,7 +561,9 @@
           <t>Applications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette technique est particulièrement utile pour l'étude dans la membrane cellulaire  en microscopie électronique à balayage : en effet, à l'étape de la fracture de l'échantillon, le plan de fracture passe généralement entre les deux couches lipidiques de la membrane.
 À la différence de la structure universelle constante de la membrane plasmique en microscopie électronique à transmission, l'observation des répliques des membranes plasmiques en cryodécapage montre des structures très variables, soit lisses, soit granuleuses.
